--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>3244.287252426147</v>
+        <v>3197.400331497192</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>2533.116102218628</v>
+        <v>2525.983095169067</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>2596.346855163574</v>
+        <v>2914.046764373779</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,121 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>2567.673921585083</v>
+        <v>2470.466375350952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2393.391847610474</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2444.068670272827</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2441.547632217407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2436.452627182007</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2453.410387039185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2459.134340286255</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>Pred</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Time(ms)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -449,17 +454,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>pred wins</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>3197.400331497192</v>
+        <v>8273.701429367065</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>2525.983095169067</v>
+        <v>2480.821132659912</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +496,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>2914.046764373779</v>
+        <v>2461.47084236145</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +515,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>2470.466375350952</v>
+        <v>2444.170713424683</v>
       </c>
     </row>
     <row r="6">
@@ -529,13 +534,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>2393.391847610474</v>
+        <v>2469.356060028076</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +553,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>2444.068670272827</v>
+        <v>2513.115882873535</v>
       </c>
     </row>
     <row r="8">
@@ -567,13 +572,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2441.547632217407</v>
+        <v>2753.872632980347</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +591,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>2436.452627182007</v>
+        <v>2481.059789657593</v>
       </c>
     </row>
     <row r="10">
@@ -605,13 +610,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>2453.410387039185</v>
+        <v>2607.418537139893</v>
       </c>
     </row>
     <row r="11">
@@ -624,13 +629,298 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2484.508514404297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>56</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2673.427581787109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>62</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2567.131757736206</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>63</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2536.525726318359</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>61</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2523.674011230469</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4960.159301757812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2468.917608261108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>61</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2480.092763900757</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2477.5230884552</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2709.322214126587</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>48</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2655.769348144531</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="E11" t="n">
-        <v>2459.134340286255</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2514.684915542603</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>49</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2538.419485092163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>52</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2509.968280792236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2498.693466186523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>prey wins</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>61</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2559.166431427002</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wins" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,16 @@
           <t>Time(ms)</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prey starved</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>predator starved</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,17 +464,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pred wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>8273.701429367065</v>
+        <v>2924.164056777954</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,17 +489,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2480.821132659912</v>
+        <v>2895.161867141724</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,17 +514,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>2461.47084236145</v>
+        <v>2513.684749603271</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -511,17 +539,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>2444.170713424683</v>
+        <v>2510.921239852905</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -530,17 +564,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>2469.356060028076</v>
+        <v>2490.007638931274</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -549,17 +589,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>2513.115882873535</v>
+        <v>2506.988286972046</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -568,17 +614,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>2753.872632980347</v>
+        <v>3582.927465438843</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -587,17 +639,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>2481.059789657593</v>
+        <v>2570.085287094116</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -606,17 +664,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>2607.418537139893</v>
+        <v>2505.111694335938</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,17 +689,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>2484.508514404297</v>
+        <v>2509.523630142212</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,17 +714,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>2673.427581787109</v>
+        <v>2511.534452438354</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -663,17 +739,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D13" t="n">
         <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>2567.131757736206</v>
+        <v>2499.178409576416</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -682,17 +764,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>2536.525726318359</v>
+        <v>2511.737108230591</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -701,17 +789,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>2523.674011230469</v>
+        <v>2517.014026641846</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -720,17 +814,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>4960.159301757812</v>
+        <v>2521.01993560791</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -739,17 +839,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>2468.917608261108</v>
+        <v>2573.244094848633</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -758,17 +864,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>2480.092763900757</v>
+        <v>2753.653764724731</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -777,17 +889,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>2477.5230884552</v>
+        <v>2544.808864593506</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -796,17 +914,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>2709.322214126587</v>
+        <v>2556.403398513794</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -815,17 +939,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2655.769348144531</v>
+        <v>2525.991678237915</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -834,17 +964,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>2514.684915542603</v>
+        <v>2507.344484329224</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -853,17 +989,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>2538.419485092163</v>
+        <v>2527.203559875488</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -872,17 +1014,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>2509.968280792236</v>
+        <v>2513.854265213013</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -891,17 +1039,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>2498.693466186523</v>
+        <v>2584.317207336426</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -910,17 +1064,823 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prey wins</t>
+          <t>wins_data</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2573.005437850952</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>95</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2526.254177093506</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2539.102077484131</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>95</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2514.130353927612</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>95</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2513.283967971802</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>95</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2518.011569976807</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2645.492076873779</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>95</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2500.171661376953</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>95</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2505.441665649414</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>95</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2495.48077583313</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>95</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2546.546697616577</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>95</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2553.016185760498</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>95</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2521.144151687622</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>96</v>
+      </c>
+      <c r="D39" t="n">
+        <v>19</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2567.018270492554</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>97</v>
+      </c>
+      <c r="D40" t="n">
         <v>18</v>
       </c>
-      <c r="E26" t="n">
-        <v>2559.166431427002</v>
+      <c r="E40" t="n">
+        <v>2536.957740783691</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>96</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2530.840396881104</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>97</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2531.039237976074</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2491.824150085449</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>95</v>
+      </c>
+      <c r="D44" t="n">
+        <v>19</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2478.105783462524</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>95</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2498.443603515625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2541.606664657593</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>97</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2529.894351959229</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>97</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2524.283647537231</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>98</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2546.886205673218</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2516.337633132935</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>97</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2478.877782821655</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>97</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2538.672924041748</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>98</v>
+      </c>
+      <c r="D53" t="n">
+        <v>19</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2508.635997772217</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>97</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2517.949104309082</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>97</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2510.123014450073</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>98</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2528.88560295105</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>98</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2537.395000457764</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>98</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2500.885725021362</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>2924.164056777954</v>
+        <v>2854.290246963501</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>2895.161867141724</v>
+        <v>3374.71079826355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2513.684749603271</v>
+        <v>3491.153955459595</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2510.921239852905</v>
+        <v>3469.091176986694</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>2490.007638931274</v>
+        <v>3477.364301681519</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>2506.988286972046</v>
+        <v>3500.184535980225</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>3582.927465438843</v>
+        <v>2777.769565582275</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2570.085287094116</v>
+        <v>2437.819242477417</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>2505.111694335938</v>
+        <v>2425.56095123291</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>2509.523630142212</v>
+        <v>2478.605508804321</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>2511.534452438354</v>
+        <v>2467.833995819092</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>2499.178409576416</v>
+        <v>2496.679067611694</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>2511.737108230591</v>
+        <v>2461.416959762573</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>2517.014026641846</v>
+        <v>2447.9820728302</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>2521.01993560791</v>
+        <v>2436.282157897949</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>2573.244094848633</v>
+        <v>2550.219774246216</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>2753.653764724731</v>
+        <v>2463.279247283936</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>2544.808864593506</v>
+        <v>2444.960117340088</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>2556.403398513794</v>
+        <v>2455.043077468872</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>2525.991678237915</v>
+        <v>2449.816703796387</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>2507.344484329224</v>
+        <v>2461.83443069458</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>2527.203559875488</v>
+        <v>2494.901180267334</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>2513.854265213013</v>
+        <v>2500.065088272095</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>2584.317207336426</v>
+        <v>2494.084358215332</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>2573.005437850952</v>
+        <v>2460.748910903931</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
-        <v>2526.254177093506</v>
+        <v>2483.832836151123</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>2539.102077484131</v>
+        <v>3773.667335510254</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>2514.130353927612</v>
+        <v>2492.933034896851</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>2513.283967971802</v>
+        <v>2464.917421340942</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>2518.011569976807</v>
+        <v>2518.134117126465</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>2645.492076873779</v>
+        <v>2447.538375854492</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
-        <v>2500.171661376953</v>
+        <v>2465.011119842529</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>2505.441665649414</v>
+        <v>2468.804836273193</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
-        <v>2495.48077583313</v>
+        <v>2474.011898040771</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>2546.546697616577</v>
+        <v>2438.58814239502</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>2553.016185760498</v>
+        <v>2464.380264282227</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>2521.144151687622</v>
+        <v>2481.318473815918</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>2567.018270492554</v>
+        <v>2463.472127914429</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>2536.957740783691</v>
+        <v>2474.099636077881</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1443,13 +1443,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>2530.840396881104</v>
+        <v>2464.581727981567</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>2531.039237976074</v>
+        <v>2509.955406188965</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>93</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>2491.824150085449</v>
+        <v>2491.349458694458</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>2478.105783462524</v>
+        <v>2484.604120254517</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>2498.443603515625</v>
+        <v>2485.413074493408</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D46" t="n">
         <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>2541.606664657593</v>
+        <v>2466.079235076904</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>2529.894351959229</v>
+        <v>2472.551584243774</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" t="n">
-        <v>2524.283647537231</v>
+        <v>2490.83948135376</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D49" t="n">
         <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>2546.886205673218</v>
+        <v>2509.913206100464</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>2516.337633132935</v>
+        <v>2462.328910827637</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1693,193 +1693,18 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>2478.877782821655</v>
+        <v>2478.613615036011</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>97</v>
-      </c>
-      <c r="D52" t="n">
-        <v>20</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2538.672924041748</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>98</v>
-      </c>
-      <c r="D53" t="n">
-        <v>19</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2508.635997772217</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>97</v>
-      </c>
-      <c r="D54" t="n">
-        <v>20</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2517.949104309082</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>97</v>
-      </c>
-      <c r="D55" t="n">
-        <v>20</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2510.123014450073</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>98</v>
-      </c>
-      <c r="D56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2528.88560295105</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>98</v>
-      </c>
-      <c r="D57" t="n">
-        <v>20</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2537.395000457764</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>98</v>
-      </c>
-      <c r="D58" t="n">
-        <v>20</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2500.885725021362</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,10 +474,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>5475.902795791626</v>
+        <v>2199.702739715576</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4989.621162414551</v>
+        <v>1629.07862663269</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4996.731996536255</v>
+        <v>1659.323692321777</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -543,19 +543,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1700.087308883667</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
-        <v>4989.547252655029</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1690.253496170044</v>
+      </c>
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>4997.479200363159</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +593,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4991.931915283203</v>
+        <v>1680.027484893799</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>5000.040531158447</v>
+        <v>1672.077894210815</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>4992.088556289673</v>
+        <v>1645.671606063843</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>4999.223947525024</v>
+        <v>1636.59143447876</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -696,141 +696,16 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>4992.521286010742</v>
+        <v>1726.107835769653</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>43</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4999.212265014648</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>43</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4990.557670593262</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4991.695165634155</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
         <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>42</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4998.230218887329</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>43</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4994.305849075317</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>2199.702739715576</v>
+        <v>3041.325569152832</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -493,219 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1629.07862663269</v>
+        <v>2740.487575531006</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1659.323692321777</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1700.087308883667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1690.253496170044</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>44</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1680.027484893799</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1672.077894210815</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1645.671606063843</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>44</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1636.59143447876</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>43</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1726.107835769653</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,19 +468,94 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4878.515958786011</v>
+      </c>
+      <c r="F2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4468.364238739014</v>
+      </c>
+      <c r="F3" t="n">
+        <v>91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>5196.133852005005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E4" t="n">
+        <v>4360.931396484375</v>
+      </c>
+      <c r="F4" t="n">
+        <v>87</v>
+      </c>
+      <c r="G4" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4282.888650894165</v>
+      </c>
+      <c r="F5" t="n">
+        <v>89</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4878.515958786011</v>
+        <v>3379.408121109009</v>
       </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4468.364238739014</v>
+        <v>2532.006978988647</v>
       </c>
       <c r="F3" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -518,44 +518,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4360.931396484375</v>
+        <v>2782.976865768433</v>
       </c>
       <c r="F4" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4282.888650894165</v>
-      </c>
-      <c r="F5" t="n">
-        <v>89</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>3379.408121109009</v>
+        <v>3126.129388809204</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2532.006978988647</v>
+        <v>2639.851808547974</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +521,491 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2681.691646575928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2624.805212020874</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2650.022268295288</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>2782.976865768433</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2633.105278015137</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2665.648937225342</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2632.755041122437</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>90</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2627.527475357056</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2648.579359054565</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>91</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2614.293813705444</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>90</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2633.073806762695</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>93</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2650.115728378296</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>91</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2613.082647323608</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>91</v>
+      </c>
+      <c r="D16" t="n">
         <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2673.084735870361</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>92</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2675.118923187256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>93</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2635.033130645752</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>93</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2617.598533630371</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>90</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2600.1136302948</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>93</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2647.555112838745</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>93</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2670.164346694946</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>93</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2620.767116546631</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>3126.129388809204</v>
+        <v>5061.264991760254</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2639.851808547974</v>
+        <v>4298.89965057373</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -518,494 +518,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>2681.691646575928</v>
+        <v>4840.141534805298</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2624.805212020874</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>89</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2650.022268295288</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>90</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2633.105278015137</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>92</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2665.648937225342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2632.755041122437</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>90</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2627.527475357056</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>91</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2648.579359054565</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>91</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2614.293813705444</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>90</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2633.073806762695</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>93</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2650.115728378296</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>91</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2613.082647323608</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>91</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2673.084735870361</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>92</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2675.118923187256</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>93</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2635.033130645752</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>93</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2617.598533630371</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>90</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2600.1136302948</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>93</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2647.555112838745</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>93</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2670.164346694946</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>wins_data</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>93</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2620.767116546631</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/simdata.xlsx
+++ b/data/simdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>5061.264991760254</v>
+        <v>4755.23853302002</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>4298.89965057373</v>
+        <v>4332.563400268555</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>16</v>
@@ -518,19 +518,5744 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4411.186695098877</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4275.597810745239</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4249.791860580444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4267.467737197876</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4315.332889556885</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4684.136390686035</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4361.871004104614</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>83</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4288.191795349121</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>85</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4262.872219085693</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4266.189098358154</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>83</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4187.997579574585</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>86</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4203.720331192017</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4205.79981803894</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>84</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4874.758958816528</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>87</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4210.216522216797</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>86</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4222.320318222046</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4198.679447174072</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>86</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4232.464551925659</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>86</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4164.040565490723</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>84</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4176.098346710205</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>85</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4241.129875183105</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>88</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4260.410070419312</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4185.670137405396</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>85</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4259.29594039917</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>85</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4539.162158966064</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>89</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4192.755460739136</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>88</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4196.855783462524</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>89</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4549.291133880615</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>89</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4478.00087928772</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>86</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4212.379693984985</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>85</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4165.200471878052</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>86</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4180.728673934937</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>88</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4135.482549667358</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>87</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4163.313865661621</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>88</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4208.218574523926</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>90</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4178.314924240112</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>87</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4145.97487449646</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4118.980407714844</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>88</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4059.22269821167</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>88</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4118.409633636475</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>88</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4108.400106430054</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>88</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4132.742643356323</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>88</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4123.172521591187</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>88</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4127.349138259888</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>89</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4147.419691085815</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4071.054935455322</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>91</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4124.18007850647</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>91</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4022.013664245605</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>89</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4032.500267028809</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>92</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4060.609817504883</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>91</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4061.933040618896</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>90</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4084.594964981079</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>92</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4052.659034729004</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>92</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4018.506526947021</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>91</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4032.893180847168</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>92</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4060.588598251343</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>92</v>
+      </c>
+      <c r="D60" t="n">
+        <v>14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4046.28324508667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>92</v>
+      </c>
+      <c r="D61" t="n">
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4083.79864692688</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>91</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4027.320861816406</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>93</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4059.670686721802</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>92</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4073.673248291016</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>92</v>
+      </c>
+      <c r="D65" t="n">
+        <v>14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4028.970003128052</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>93</v>
+      </c>
+      <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4036.835193634033</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>92</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4115.548610687256</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>92</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4076.605081558228</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>92</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4065.272092819214</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>91</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4033.638954162598</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>92</v>
+      </c>
+      <c r="D71" t="n">
+        <v>14</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4036.181926727295</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>93</v>
+      </c>
+      <c r="D72" t="n">
+        <v>14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4042.647361755371</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>93</v>
+      </c>
+      <c r="D73" t="n">
+        <v>14</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4088.328838348389</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>91</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4117.912292480469</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>92</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4045.934677124023</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4840.141534805298</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>92</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4036.144971847534</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>92</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4014.992237091064</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>92</v>
+      </c>
+      <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="G4" t="n">
-        <v>10</v>
+      <c r="E78" t="n">
+        <v>4058.665990829468</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>92</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4097.200393676758</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>90</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3997.262954711914</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>91</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4046.251535415649</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>92</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4022.05491065979</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>93</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4053.697109222412</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>93</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4108.880996704102</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>91</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4089.727640151978</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>92</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4150.806188583374</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>92</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4128.416776657104</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>93</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4110.456228256226</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>92</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4103.437662124634</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>93</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4133.289098739624</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>93</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4057.776927947998</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>93</v>
+      </c>
+      <c r="D92" t="n">
+        <v>16</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4184.466123580933</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>93</v>
+      </c>
+      <c r="D93" t="n">
+        <v>16</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4120.885133743286</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>95</v>
+      </c>
+      <c r="D94" t="n">
+        <v>16</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4201.604604721069</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>95</v>
+      </c>
+      <c r="D95" t="n">
+        <v>17</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4091.232061386108</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4160.594463348389</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>17</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4097.661972045898</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>95</v>
+      </c>
+      <c r="D98" t="n">
+        <v>17</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4126.946449279785</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>94</v>
+      </c>
+      <c r="D99" t="n">
+        <v>17</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4089.224815368652</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>95</v>
+      </c>
+      <c r="D100" t="n">
+        <v>17</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4111.615896224976</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>95</v>
+      </c>
+      <c r="D101" t="n">
+        <v>17</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4094.398260116577</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>95</v>
+      </c>
+      <c r="D102" t="n">
+        <v>17</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4069.98085975647</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>95</v>
+      </c>
+      <c r="D103" t="n">
+        <v>17</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4082.268476486206</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>95</v>
+      </c>
+      <c r="D104" t="n">
+        <v>17</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4055.836915969849</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>95</v>
+      </c>
+      <c r="D105" t="n">
+        <v>17</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4116.756200790405</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>95</v>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4066.700220108032</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>95</v>
+      </c>
+      <c r="D107" t="n">
+        <v>17</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4050.154685974121</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>94</v>
+      </c>
+      <c r="D108" t="n">
+        <v>17</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4038.041830062866</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>95</v>
+      </c>
+      <c r="D109" t="n">
+        <v>17</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4058.813333511353</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>96</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4070.917129516602</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>96</v>
+      </c>
+      <c r="D111" t="n">
+        <v>17</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4063.649892807007</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>96</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4034.717559814453</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>96</v>
+      </c>
+      <c r="D113" t="n">
+        <v>17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4022.078514099121</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>96</v>
+      </c>
+      <c r="D114" t="n">
+        <v>17</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4101.326465606689</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>96</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4077.215194702148</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>95</v>
+      </c>
+      <c r="D116" t="n">
+        <v>17</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4067.489385604858</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>96</v>
+      </c>
+      <c r="D117" t="n">
+        <v>17</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4071.366310119629</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>95</v>
+      </c>
+      <c r="D118" t="n">
+        <v>17</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4075.15811920166</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>95</v>
+      </c>
+      <c r="D119" t="n">
+        <v>17</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4138.468503952026</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>95</v>
+      </c>
+      <c r="D120" t="n">
+        <v>17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4175.140380859375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>95</v>
+      </c>
+      <c r="D121" t="n">
+        <v>17</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4091.511964797974</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>95</v>
+      </c>
+      <c r="D122" t="n">
+        <v>17</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4049.34287071228</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>95</v>
+      </c>
+      <c r="D123" t="n">
+        <v>17</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4015.830039978027</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>95</v>
+      </c>
+      <c r="D124" t="n">
+        <v>17</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4091.241359710693</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>94</v>
+      </c>
+      <c r="D125" t="n">
+        <v>17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4588.849306106567</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>94</v>
+      </c>
+      <c r="D126" t="n">
+        <v>17</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4279.359817504883</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>96</v>
+      </c>
+      <c r="D127" t="n">
+        <v>17</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4263.976335525513</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>96</v>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4158.273935317993</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>96</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4129.929780960083</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>96</v>
+      </c>
+      <c r="D130" t="n">
+        <v>17</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4101.032018661499</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>96</v>
+      </c>
+      <c r="D131" t="n">
+        <v>18</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4101.73487663269</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>95</v>
+      </c>
+      <c r="D132" t="n">
+        <v>18</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4100.41880607605</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>95</v>
+      </c>
+      <c r="D133" t="n">
+        <v>18</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4153.901815414429</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>94</v>
+      </c>
+      <c r="D134" t="n">
+        <v>18</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4063.907146453857</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>94</v>
+      </c>
+      <c r="D135" t="n">
+        <v>18</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4091.378450393677</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>96</v>
+      </c>
+      <c r="D136" t="n">
+        <v>18</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4088.369369506836</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>96</v>
+      </c>
+      <c r="D137" t="n">
+        <v>18</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4121.043920516968</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>95</v>
+      </c>
+      <c r="D138" t="n">
+        <v>18</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4070.01805305481</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>95</v>
+      </c>
+      <c r="D139" t="n">
+        <v>18</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4072.476387023926</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>95</v>
+      </c>
+      <c r="D140" t="n">
+        <v>18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4148.633241653442</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>95</v>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4154.774188995361</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>95</v>
+      </c>
+      <c r="D142" t="n">
+        <v>18</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4084.082841873169</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>95</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4061.541795730591</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>95</v>
+      </c>
+      <c r="D144" t="n">
+        <v>18</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4226.051807403564</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>95</v>
+      </c>
+      <c r="D145" t="n">
+        <v>18</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4072.94774055481</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>95</v>
+      </c>
+      <c r="D146" t="n">
+        <v>18</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4124.491214752197</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>95</v>
+      </c>
+      <c r="D147" t="n">
+        <v>17</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4075.019359588623</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>95</v>
+      </c>
+      <c r="D148" t="n">
+        <v>18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4095.982789993286</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>95</v>
+      </c>
+      <c r="D149" t="n">
+        <v>18</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4087.032318115234</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>95</v>
+      </c>
+      <c r="D150" t="n">
+        <v>18</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4157.4866771698</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>95</v>
+      </c>
+      <c r="D151" t="n">
+        <v>18</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4116.802930831909</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>95</v>
+      </c>
+      <c r="D152" t="n">
+        <v>18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4085.711002349854</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>95</v>
+      </c>
+      <c r="D153" t="n">
+        <v>18</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4175.70972442627</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>95</v>
+      </c>
+      <c r="D154" t="n">
+        <v>18</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4169.178247451782</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>95</v>
+      </c>
+      <c r="D155" t="n">
+        <v>18</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4333.990573883057</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>95</v>
+      </c>
+      <c r="D156" t="n">
+        <v>18</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4217.036962509155</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>95</v>
+      </c>
+      <c r="D157" t="n">
+        <v>18</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4063.923120498657</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>95</v>
+      </c>
+      <c r="D158" t="n">
+        <v>18</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4081.123352050781</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>95</v>
+      </c>
+      <c r="D159" t="n">
+        <v>18</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4114.162921905518</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>95</v>
+      </c>
+      <c r="D160" t="n">
+        <v>18</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4201.36022567749</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>95</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4482.609510421753</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>95</v>
+      </c>
+      <c r="D162" t="n">
+        <v>18</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4058.734178543091</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>95</v>
+      </c>
+      <c r="D163" t="n">
+        <v>18</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4086.110353469849</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>95</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4054.27074432373</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>95</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4082.432270050049</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>95</v>
+      </c>
+      <c r="D166" t="n">
+        <v>18</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4086.785078048706</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>95</v>
+      </c>
+      <c r="D167" t="n">
+        <v>18</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4039.807081222534</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>95</v>
+      </c>
+      <c r="D168" t="n">
+        <v>18</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4113.348007202148</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>95</v>
+      </c>
+      <c r="D169" t="n">
+        <v>18</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4062.393426895142</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>95</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4114.483833312988</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>95</v>
+      </c>
+      <c r="D171" t="n">
+        <v>18</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4156.322240829468</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>95</v>
+      </c>
+      <c r="D172" t="n">
+        <v>18</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4214.296579360962</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>18</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4309.963226318359</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>95</v>
+      </c>
+      <c r="D174" t="n">
+        <v>18</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4092.305421829224</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>95</v>
+      </c>
+      <c r="D175" t="n">
+        <v>18</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4099.210500717163</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>95</v>
+      </c>
+      <c r="D176" t="n">
+        <v>18</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4070.666551589966</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>95</v>
+      </c>
+      <c r="D177" t="n">
+        <v>18</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4164.540529251099</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>95</v>
+      </c>
+      <c r="D178" t="n">
+        <v>18</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4114.954233169556</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>96</v>
+      </c>
+      <c r="D179" t="n">
+        <v>18</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4124.872922897339</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>96</v>
+      </c>
+      <c r="D180" t="n">
+        <v>18</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4187.236309051514</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>97</v>
+      </c>
+      <c r="D181" t="n">
+        <v>18</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4205.820560455322</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>96</v>
+      </c>
+      <c r="D182" t="n">
+        <v>18</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4123.463869094849</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>96</v>
+      </c>
+      <c r="D183" t="n">
+        <v>18</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4024.914979934692</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>96</v>
+      </c>
+      <c r="D184" t="n">
+        <v>18</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4021.562814712524</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>97</v>
+      </c>
+      <c r="D185" t="n">
+        <v>18</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4040.997982025146</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>96</v>
+      </c>
+      <c r="D186" t="n">
+        <v>18</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4040.318012237549</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>97</v>
+      </c>
+      <c r="D187" t="n">
+        <v>18</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4072.566032409668</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>97</v>
+      </c>
+      <c r="D188" t="n">
+        <v>18</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4058.651208877563</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>97</v>
+      </c>
+      <c r="D189" t="n">
+        <v>18</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4079.066753387451</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D190" t="n">
+        <v>18</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4045.955657958984</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>96</v>
+      </c>
+      <c r="D191" t="n">
+        <v>18</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4036.874294281006</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>97</v>
+      </c>
+      <c r="D192" t="n">
+        <v>17</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4033.869028091431</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>96</v>
+      </c>
+      <c r="D193" t="n">
+        <v>18</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4067.539691925049</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>97</v>
+      </c>
+      <c r="D194" t="n">
+        <v>18</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4039.738416671753</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>97</v>
+      </c>
+      <c r="D195" t="n">
+        <v>18</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4155.279159545898</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>97</v>
+      </c>
+      <c r="D196" t="n">
+        <v>18</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4054.082155227661</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>97</v>
+      </c>
+      <c r="D197" t="n">
+        <v>18</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4187.38865852356</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>97</v>
+      </c>
+      <c r="D198" t="n">
+        <v>18</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4129.518985748291</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>97</v>
+      </c>
+      <c r="D199" t="n">
+        <v>18</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4074.14174079895</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>97</v>
+      </c>
+      <c r="D200" t="n">
+        <v>18</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4057.670116424561</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>97</v>
+      </c>
+      <c r="D201" t="n">
+        <v>18</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4053.051471710205</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>97</v>
+      </c>
+      <c r="D202" t="n">
+        <v>18</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4028.535604476929</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>97</v>
+      </c>
+      <c r="D203" t="n">
+        <v>18</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4030.016660690308</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>97</v>
+      </c>
+      <c r="D204" t="n">
+        <v>18</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4041.796684265137</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>97</v>
+      </c>
+      <c r="D205" t="n">
+        <v>18</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4071.642875671387</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>97</v>
+      </c>
+      <c r="D206" t="n">
+        <v>18</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4063.169240951538</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>97</v>
+      </c>
+      <c r="D207" t="n">
+        <v>18</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4036.171436309814</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>97</v>
+      </c>
+      <c r="D208" t="n">
+        <v>18</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4035.096883773804</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>97</v>
+      </c>
+      <c r="D209" t="n">
+        <v>18</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4102.363348007202</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>97</v>
+      </c>
+      <c r="D210" t="n">
+        <v>18</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4086.026906967163</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D211" t="n">
+        <v>18</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4059.993982315063</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>97</v>
+      </c>
+      <c r="D212" t="n">
+        <v>18</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4054.400682449341</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>97</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4088.67073059082</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>97</v>
+      </c>
+      <c r="D214" t="n">
+        <v>18</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4108.828783035278</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>97</v>
+      </c>
+      <c r="D215" t="n">
+        <v>18</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4069.74983215332</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>97</v>
+      </c>
+      <c r="D216" t="n">
+        <v>18</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4034.409523010254</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>97</v>
+      </c>
+      <c r="D217" t="n">
+        <v>18</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4040.442705154419</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>97</v>
+      </c>
+      <c r="D218" t="n">
+        <v>18</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4051.330804824829</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>97</v>
+      </c>
+      <c r="D219" t="n">
+        <v>18</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4099.466800689697</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>97</v>
+      </c>
+      <c r="D220" t="n">
+        <v>19</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4058.194875717163</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>97</v>
+      </c>
+      <c r="D221" t="n">
+        <v>18</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4075.134038925171</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>97</v>
+      </c>
+      <c r="D222" t="n">
+        <v>19</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4052.558422088623</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>97</v>
+      </c>
+      <c r="D223" t="n">
+        <v>19</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4071.724653244019</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>97</v>
+      </c>
+      <c r="D224" t="n">
+        <v>19</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4082.87501335144</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>97</v>
+      </c>
+      <c r="D225" t="n">
+        <v>19</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4043.118476867676</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>97</v>
+      </c>
+      <c r="D226" t="n">
+        <v>19</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4040.725946426392</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>97</v>
+      </c>
+      <c r="D227" t="n">
+        <v>19</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4091.688871383667</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>97</v>
+      </c>
+      <c r="D228" t="n">
+        <v>19</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4070.17970085144</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>97</v>
+      </c>
+      <c r="D229" t="n">
+        <v>19</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4040.96508026123</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>97</v>
+      </c>
+      <c r="D230" t="n">
+        <v>19</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4110.962390899658</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>97</v>
+      </c>
+      <c r="D231" t="n">
+        <v>19</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4057.535886764526</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>97</v>
+      </c>
+      <c r="D232" t="n">
+        <v>19</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4095.832347869873</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>wins_data</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>97</v>
+      </c>
+      <c r="D233" t="n">
+        <v>19</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4176.150798797607</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
